--- a/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
+++ b/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4243,7 +4244,6 @@
           <t>汇安丰裕灵活配置混合C</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>87.40</t>
@@ -4275,7 +4275,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>79.63</t>
@@ -4291,6 +4290,1236 @@
       </c>
       <c r="H27" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.7458</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5948</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5173</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
+++ b/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5525,4 +5526,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.4828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3658</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8618</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5733</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
+++ b/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6304,4 +6305,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
+++ b/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6313,7 +6314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6324,17 +6325,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6344,14 +6365,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.23</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.2409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6360,14 +6403,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.05</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6274</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6376,14 +6441,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.25</v>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6392,13 +6479,2545 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9807</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8420</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7478</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2971</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2931</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2280</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0256</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8521</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4957</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4833</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3235</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>24.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
+++ b/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8916,7 +8917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8927,17 +8928,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8947,14 +8968,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>47.06</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.8339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8963,14 +9006,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.23</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8979,14 +9044,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.05</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8995,14 +9082,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.25</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4483</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -9011,13 +9120,4119 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5330</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9355</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6953</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6688</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6464</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6445</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5985</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5739</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5592</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3117</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2999</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2727</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0955</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0041</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9763</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9019</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8362</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7752</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7699</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6678</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6562</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6502</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5184</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5146</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4817</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3867</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>52.90</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>73</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>24.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
+++ b/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13115,7 +13116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13126,17 +13127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13146,14 +13167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>109</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.45</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.1852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -13162,14 +13205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>47.06</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.8837</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -13178,14 +13243,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.23</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -13194,14 +13281,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.05</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -13210,14 +13319,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.25</v>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -13226,13 +13357,3791 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7489</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6886</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6495</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6227</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5493</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2354</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1389</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0689</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9335</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8959</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7475</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7365</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7080</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5373</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5239</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4886</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000273</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华润元大安鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007632</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华润元大安鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>73</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>24.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
+++ b/数据整理/stocks/A股/科创板/688122-西部超导.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="D2" t="n">
-        <v>67.53</v>
+        <v>109.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
-        <v>74.45</v>
+        <v>67.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>47.06</v>
+        <v>74.45</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>25.23</v>
+        <v>47.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05</v>
+        <v>25.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>14.25</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>73</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>24.62</v>
       </c>
     </row>
@@ -600,6 +617,9404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H247"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.7338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>293.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.0048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1875</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2863</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>105.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3358</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0564</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>387.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9773</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8507</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7621</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7507</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6589</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6270</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5818</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5558</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4943</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4046</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2752</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0677</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0325</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9913</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9774</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9659</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9545</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8704</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8571</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8219</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8010</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7838</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6799</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6589</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6471</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6322</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6243</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5197</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4954</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4850</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4792</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013552</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4683</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4634</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4494</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4398</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4053</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城安心回报混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3634</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>69.60</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013553</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>62.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长城研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159761</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国泰中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>016059</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>工银优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>69.60</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>561150</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>富国中证500ESG基准ETF</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>016061</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>015965</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>长城安心回报混合C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4491,7 +13906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8689,7 +18104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11291,7 +20706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12069,7 +21484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13299,7 +22714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14329,7 +23744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
